--- a/mindtickle/target/classes/mt/qa/testdataprovider/workbook.xlsx
+++ b/mindtickle/target/classes/mt/qa/testdataprovider/workbook.xlsx
@@ -29,12 +29,6 @@
     <t>Series</t>
   </si>
   <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
     <t>MCQ</t>
   </si>
   <si>
@@ -47,21 +41,12 @@
     <t>first topic</t>
   </si>
   <si>
-    <t>h11</t>
-  </si>
-  <si>
-    <t>h36</t>
-  </si>
-  <si>
     <t>D:\\mindtickle_assignment\\mindtickle\\AutoIT\\FileUpload.exe</t>
   </si>
   <si>
     <t>filepath</t>
   </si>
   <si>
-    <t>h70</t>
-  </si>
-  <si>
     <t>towhome</t>
   </si>
   <si>
@@ -77,16 +62,31 @@
     <t>description text</t>
   </si>
   <si>
-    <t>prasadsinghr7</t>
-  </si>
-  <si>
-    <t>r2ajput.prasadsingh@gmail.com</t>
-  </si>
-  <si>
     <t>Topic name</t>
   </si>
   <si>
-    <t>Header in mail</t>
+    <t>create course</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add cousre </t>
+  </si>
+  <si>
+    <t>Edit topic</t>
+  </si>
+  <si>
+    <t>Add content</t>
+  </si>
+  <si>
+    <t>invite learner</t>
+  </si>
+  <si>
+    <t>prasadsinghr79</t>
+  </si>
+  <si>
+    <t>rajput.prasadsingh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -470,12 +470,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -492,13 +492,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +511,55 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,68 +579,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -605,12 +606,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -626,27 +627,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +660,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,45 +685,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
